--- a/results/BINARY_POOL/Pretomanid.xlsx
+++ b/results/BINARY_POOL/Pretomanid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="258">
   <si>
     <t>mutation</t>
   </si>
@@ -136,15 +136,6 @@
   </si>
   <si>
     <t>regression_confidence</t>
-  </si>
-  <si>
-    <t>MIC_coef</t>
-  </si>
-  <si>
-    <t>BH_MIC_pval</t>
-  </si>
-  <si>
-    <t>Use_MIC_Evidence</t>
   </si>
   <si>
     <t>single_lineage</t>
@@ -1156,13 +1147,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:AP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,28 +1280,19 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
       </c>
       <c r="F2">
         <v>1.694641637565141</v>
@@ -1367,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y2">
         <v>0.8</v>
@@ -1397,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="AI2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ2">
         <v>0.5868177012338136</v>
@@ -1406,39 +1388,30 @@
         <v>1.090628313792116</v>
       </c>
       <c r="AL2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2">
-        <v>0.3387333890909767</v>
-      </c>
-      <c r="AP2">
-        <v>0.009900000000000001</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
       </c>
       <c r="F3">
         <v>1.473009105033125</v>
@@ -1495,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y3">
         <v>0.9</v>
@@ -1525,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="AI3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ3">
         <v>0.7320116427439927</v>
@@ -1534,42 +1507,33 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO3">
-        <v>0.255868240990465</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP3" t="s">
         <v>63</v>
       </c>
-      <c r="AS3" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
       </c>
       <c r="F4">
         <v>1.46243671184745</v>
@@ -1626,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y4">
         <v>0.9</v>
@@ -1656,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="AI4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ4">
         <v>0.7320116427439927</v>
@@ -1665,42 +1629,33 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO4" t="s">
         <v>61</v>
       </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO4">
-        <v>0.2179706389751113</v>
-      </c>
-      <c r="AP4">
-        <v>0.04455</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>66</v>
+      <c r="AP4" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>1.458793558671009</v>
@@ -1757,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="X5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y5">
         <v>0.9</v>
@@ -1787,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="AI5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ5">
         <v>0.7320116427439927</v>
@@ -1796,42 +1751,33 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO5" t="s">
         <v>61</v>
       </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO5">
-        <v>0.2085230505179962</v>
-      </c>
-      <c r="AP5">
-        <v>0.0385</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>66</v>
+      <c r="AP5" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <v>1.450391914181331</v>
@@ -1888,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="X6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y6">
         <v>0.9</v>
@@ -1918,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="AI6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ6">
         <v>0.7320116427439927</v>
@@ -1927,42 +1873,33 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO6" t="s">
         <v>61</v>
       </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO6">
-        <v>0.2078460495506812</v>
-      </c>
-      <c r="AP6">
-        <v>0.063</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>66</v>
+      <c r="AP6" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:42">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>0.9881282789774234</v>
@@ -2058,28 +1995,19 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM7">
         <v>0</v>
       </c>
       <c r="AN7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO7" t="s">
         <v>62</v>
       </c>
-      <c r="AO7">
-        <v>-0.0019421399845012</v>
-      </c>
-      <c r="AP7">
-        <v>0.595</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>66</v>
+      <c r="AP7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2089,13 +2017,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS47"/>
+  <dimension ref="A1:AP47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2222,25 +2150,16 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F2">
         <v>2.321789905069681</v>
@@ -2297,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y2">
         <v>0.5</v>
@@ -2327,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="AI2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ2">
         <v>0.2690273550635447</v>
@@ -2336,36 +2255,27 @@
         <v>0.9292735303476836</v>
       </c>
       <c r="AL2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO2">
-        <v>0.5179876199855844</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>66</v>
+        <v>157</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F3">
         <v>1.459943903674587</v>
@@ -2422,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y3">
         <v>0.9</v>
@@ -2452,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="AI3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ3">
         <v>0.7320116427439927</v>
@@ -2461,42 +2371,33 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO3">
-        <v>0.2090257619180223</v>
-      </c>
-      <c r="AP3">
-        <v>0.0746666666666666</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F4">
         <v>1.443686630386843</v>
@@ -2553,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="X4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Y4">
         <v>0.9</v>
@@ -2583,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="AI4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AJ4">
         <v>0.7320116427439927</v>
@@ -2592,42 +2493,33 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO4" t="s">
         <v>159</v>
       </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO4">
-        <v>0.2262784615531545</v>
-      </c>
-      <c r="AP4">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>66</v>
+      <c r="AP4" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F5">
         <v>1.079843076920394</v>
@@ -2726,39 +2618,30 @@
         <v>1.108196697017925</v>
       </c>
       <c r="AL5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO5">
-        <v>0.0421216301682777</v>
-      </c>
-      <c r="AP5">
-        <v>0.0384</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F6">
         <v>1.079843076920394</v>
@@ -2857,39 +2740,30 @@
         <v>1.108196697017925</v>
       </c>
       <c r="AL6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO6">
-        <v>0.0421216301682772</v>
-      </c>
-      <c r="AP6">
-        <v>0.0384</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:42">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F7">
         <v>1.079843076920394</v>
@@ -2988,39 +2862,30 @@
         <v>1.108196697017925</v>
       </c>
       <c r="AL7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM7">
         <v>0</v>
       </c>
       <c r="AN7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO7">
-        <v>0.0421216301682776</v>
-      </c>
-      <c r="AP7">
-        <v>0.0384</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:42">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F8">
         <v>1.079843076920394</v>
@@ -3119,39 +2984,30 @@
         <v>1.108196697017925</v>
       </c>
       <c r="AL8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM8">
         <v>0</v>
       </c>
       <c r="AN8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO8">
-        <v>0.0421216301682777</v>
-      </c>
-      <c r="AP8">
-        <v>0.0384</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:42">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F9">
         <v>1.079843076920394</v>
@@ -3250,39 +3106,30 @@
         <v>1.108196697017925</v>
       </c>
       <c r="AL9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM9">
         <v>0</v>
       </c>
       <c r="AN9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO9">
-        <v>0.0421216301682773</v>
-      </c>
-      <c r="AP9">
-        <v>0.0384</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:42">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F10">
         <v>0.9986118168222038</v>
@@ -3381,42 +3228,33 @@
         <v>1.121632758828183</v>
       </c>
       <c r="AL10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM10">
         <v>0</v>
       </c>
       <c r="AN10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO10">
-        <v>-0.0472563749693689</v>
-      </c>
-      <c r="AP10">
-        <v>0.384</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>66</v>
+        <v>158</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:42">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F11">
         <v>0.9956496713810062</v>
@@ -3512,42 +3350,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM11">
         <v>0</v>
       </c>
       <c r="AN11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO11">
-        <v>-0.0075476412057241</v>
-      </c>
-      <c r="AP11">
-        <v>0.5601758241758242</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:42">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F12">
         <v>0.9950589177568536</v>
@@ -3643,42 +3472,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM12">
         <v>0</v>
       </c>
       <c r="AN12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO12">
-        <v>0.0116307327163454</v>
-      </c>
-      <c r="AP12">
-        <v>0.4546666666666667</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:42">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F13">
         <v>0.995029093495308</v>
@@ -3774,42 +3594,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM13">
         <v>0</v>
       </c>
       <c r="AN13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO13">
-        <v>0.0147349510600966</v>
-      </c>
-      <c r="AP13">
-        <v>0.4312835820895522</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:42">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F14">
         <v>0.9943554514780726</v>
@@ -3905,42 +3716,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM14">
         <v>0</v>
       </c>
       <c r="AN14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO14">
-        <v>-0.0018821647378693</v>
-      </c>
-      <c r="AP14">
-        <v>0.591</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:42">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F15">
         <v>0.9941606166422834</v>
@@ -4036,42 +3838,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM15">
         <v>0</v>
       </c>
       <c r="AN15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO15">
-        <v>-0.0478408438618446</v>
-      </c>
-      <c r="AP15">
-        <v>0.2170434782608695</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:42">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F16">
         <v>0.9928256958679186</v>
@@ -4167,42 +3960,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM16">
         <v>0</v>
       </c>
       <c r="AN16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO16">
-        <v>0.0005562709549374</v>
-      </c>
-      <c r="AP16">
-        <v>0.5181686746987951</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP16" t="s">
         <v>63</v>
       </c>
-      <c r="AS16" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:42">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F17">
         <v>0.9928256958679186</v>
@@ -4298,42 +4082,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM17">
         <v>0</v>
       </c>
       <c r="AN17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO17">
-        <v>0.0005562709549374</v>
-      </c>
-      <c r="AP17">
-        <v>0.5181686746987951</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP17" t="s">
         <v>63</v>
       </c>
-      <c r="AS17" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:42">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F18">
         <v>0.9918261764791284</v>
@@ -4429,42 +4204,33 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM18">
         <v>0</v>
       </c>
       <c r="AN18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO18">
-        <v>0.0046088618435183</v>
-      </c>
-      <c r="AP18">
-        <v>0.499948051948052</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:42">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F19">
         <v>0.9903825625610204</v>
@@ -4560,42 +4326,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM19">
         <v>0</v>
       </c>
       <c r="AN19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO19">
-        <v>-0.005441720470187</v>
-      </c>
-      <c r="AP19">
-        <v>0.591</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:42">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F20">
         <v>0.9896174405771196</v>
@@ -4691,42 +4448,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM20">
         <v>0</v>
       </c>
       <c r="AN20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO20">
-        <v>0.0022399834559887</v>
-      </c>
-      <c r="AP20">
-        <v>0.499948051948052</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:42">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F21">
         <v>0.9892328336487124</v>
@@ -4822,39 +4570,30 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM21">
         <v>0</v>
       </c>
       <c r="AN21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO21">
-        <v>-0.0627021515515408</v>
-      </c>
-      <c r="AP21">
-        <v>0.0858947368421052</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:42">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F22">
         <v>0.9888822895369376</v>
@@ -4950,42 +4689,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM22">
         <v>0</v>
       </c>
       <c r="AN22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO22">
-        <v>-0.005883883483335</v>
-      </c>
-      <c r="AP22">
-        <v>0.5894193548387097</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:42">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F23">
         <v>0.9888593047792849</v>
@@ -5081,42 +4811,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM23">
         <v>0</v>
       </c>
       <c r="AN23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO23">
-        <v>-0.0035705294842533</v>
-      </c>
-      <c r="AP23">
-        <v>0.591</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:42">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F24">
         <v>0.9884408549020964</v>
@@ -5212,42 +4933,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM24">
         <v>0</v>
       </c>
       <c r="AN24" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO24">
-        <v>-0.0182094350939101</v>
-      </c>
-      <c r="AP24">
-        <v>0.4312835820895522</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:42">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F25">
         <v>0.9882782984497128</v>
@@ -5343,42 +5055,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM25">
         <v>0</v>
       </c>
       <c r="AN25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO25">
-        <v>0.0221904714349451</v>
-      </c>
-      <c r="AP25">
-        <v>0.4312835820895522</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>163</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:42">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F26">
         <v>0.9882648148694224</v>
@@ -5474,39 +5177,30 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM26">
         <v>0</v>
       </c>
       <c r="AN26" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO26">
-        <v>-0.0782227361182601</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:42">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F27">
         <v>0.9881283038603894</v>
@@ -5602,42 +5296,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM27">
         <v>0</v>
       </c>
       <c r="AN27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO27" t="s">
         <v>62</v>
       </c>
-      <c r="AO27">
-        <v>-0.0019583828993608</v>
-      </c>
-      <c r="AP27">
-        <v>0.5885217391304347</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>66</v>
+      <c r="AP27" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:42">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F28">
         <v>0.9879345491609592</v>
@@ -5733,42 +5418,33 @@
         <v>1.013986870030706</v>
       </c>
       <c r="AL28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM28">
         <v>0</v>
       </c>
       <c r="AN28" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO28">
-        <v>-0.0413135406454291</v>
-      </c>
-      <c r="AP28">
-        <v>0.3413333333333333</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>66</v>
+        <v>158</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:42">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F29">
         <v>0.9877957165508924</v>
@@ -5864,42 +5540,33 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM29">
         <v>0</v>
       </c>
       <c r="AN29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO29">
-        <v>0.0096317750064829</v>
-      </c>
-      <c r="AP29">
-        <v>0.467027027027027</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP29" t="s">
         <v>63</v>
       </c>
-      <c r="AS29" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:42">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F30">
         <v>0.987734040634457</v>
@@ -5995,42 +5662,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM30">
         <v>0</v>
       </c>
       <c r="AN30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO30">
-        <v>0.009762097628384699</v>
-      </c>
-      <c r="AP30">
-        <v>0.4546666666666667</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:42">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F31">
         <v>0.9873936283383408</v>
@@ -6126,42 +5784,33 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM31">
         <v>0</v>
       </c>
       <c r="AN31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO31">
-        <v>0.038164866093607</v>
-      </c>
-      <c r="AP31">
-        <v>0.3794285714285714</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>173</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:42">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F32">
         <v>0.9864565737472164</v>
@@ -6257,42 +5906,33 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM32">
         <v>0</v>
       </c>
       <c r="AN32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO32">
-        <v>0.0195609449024179</v>
-      </c>
-      <c r="AP32">
-        <v>0.4312835820895522</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:42">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F33">
         <v>0.984759768357423</v>
@@ -6388,42 +6028,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM33">
         <v>0</v>
       </c>
       <c r="AN33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO33">
-        <v>0.0242822184368501</v>
-      </c>
-      <c r="AP33">
-        <v>0.4312835820895522</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>174</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:42">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F34">
         <v>0.9838161144618062</v>
@@ -6519,42 +6150,33 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM34">
         <v>0</v>
       </c>
       <c r="AN34" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO34">
-        <v>0.0226352991595389</v>
-      </c>
-      <c r="AP34">
-        <v>0.4312835820895522</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:42">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F35">
         <v>0.9805060705842458</v>
@@ -6650,42 +6272,33 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM35">
         <v>0</v>
       </c>
       <c r="AN35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO35">
-        <v>0.0151476551917727</v>
-      </c>
-      <c r="AP35">
-        <v>0.4312835820895522</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:42">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F36">
         <v>0.9788263263464596</v>
@@ -6781,42 +6394,33 @@
         <v>1.01178481253522</v>
       </c>
       <c r="AL36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM36">
         <v>0</v>
       </c>
       <c r="AN36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO36">
-        <v>0.0149982200128425</v>
-      </c>
-      <c r="AP36">
-        <v>0.4546666666666667</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>176</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:42">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F37">
         <v>0.9758926791294082</v>
@@ -6912,42 +6516,33 @@
         <v>1.022339649381213</v>
       </c>
       <c r="AL37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM37">
         <v>0</v>
       </c>
       <c r="AN37" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO37">
-        <v>0.07622022837107099</v>
-      </c>
-      <c r="AP37">
-        <v>0.236</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>66</v>
+        <v>158</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:42">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F38">
         <v>0.9737420037431384</v>
@@ -7043,42 +6638,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM38">
         <v>0</v>
       </c>
       <c r="AN38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO38">
-        <v>0.0031224397588531</v>
-      </c>
-      <c r="AP38">
-        <v>0.5131851851851852</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:42">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F39">
         <v>0.96547086374019</v>
@@ -7174,42 +6760,33 @@
         <v>1.013986870030706</v>
       </c>
       <c r="AL39" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM39">
         <v>0</v>
       </c>
       <c r="AN39" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO39">
-        <v>0.0674323502437545</v>
-      </c>
-      <c r="AP39">
-        <v>0.3065806451612903</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:45">
+    <row r="40" spans="1:42">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F40">
         <v>0.9583191692152678</v>
@@ -7305,42 +6882,33 @@
         <v>1.01178481253522</v>
       </c>
       <c r="AL40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM40">
         <v>0</v>
       </c>
       <c r="AN40" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO40">
-        <v>-0.0008576041966476</v>
-      </c>
-      <c r="AP40">
-        <v>0.5557333333333333</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AR40" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS40" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:45">
+    <row r="41" spans="1:42">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F41">
         <v>0.9385958142609347</v>
@@ -7436,39 +7004,30 @@
         <v>1.069213019489775</v>
       </c>
       <c r="AL41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM41">
         <v>0</v>
       </c>
       <c r="AN41" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO41">
-        <v>-0.0481332297537263</v>
-      </c>
-      <c r="AP41">
-        <v>0.2170434782608695</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AS41" t="s">
-        <v>66</v>
+        <v>158</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:45">
+    <row r="42" spans="1:42">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F42">
         <v>0.8957346146740108</v>
@@ -7564,42 +7123,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL42" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM42">
         <v>0</v>
       </c>
       <c r="AN42" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO42">
-        <v>0.018281429075718</v>
-      </c>
-      <c r="AP42">
-        <v>0.4312835820895522</v>
-      </c>
-      <c r="AQ42">
-        <v>0</v>
-      </c>
-      <c r="AR42" t="s">
-        <v>179</v>
-      </c>
-      <c r="AS42" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:45">
+    <row r="43" spans="1:42">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F43">
         <v>0.8805644170351918</v>
@@ -7695,42 +7245,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL43" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM43">
         <v>0</v>
       </c>
       <c r="AN43" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO43">
-        <v>-0.0151925741864507</v>
-      </c>
-      <c r="AP43">
-        <v>0.4668493150684931</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AR43" t="s">
-        <v>179</v>
-      </c>
-      <c r="AS43" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:45">
+    <row r="44" spans="1:42">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F44">
         <v>0.8764516437116134</v>
@@ -7826,42 +7367,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM44">
         <v>0</v>
       </c>
       <c r="AN44" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO44">
-        <v>0.0538366427659299</v>
-      </c>
-      <c r="AP44">
-        <v>0.3065806451612903</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AR44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AS44" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:45">
+    <row r="45" spans="1:42">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F45">
         <v>0.8724541397921934</v>
@@ -7957,42 +7489,33 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM45">
         <v>0</v>
       </c>
       <c r="AN45" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO45">
-        <v>0.0193935727451385</v>
-      </c>
-      <c r="AP45">
-        <v>0.4312835820895522</v>
-      </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AR45" t="s">
-        <v>179</v>
-      </c>
-      <c r="AS45" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:45">
+    <row r="46" spans="1:42">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F46">
         <v>0.8374201629627898</v>
@@ -8088,42 +7611,33 @@
         <v>1.007073365861384</v>
       </c>
       <c r="AL46" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM46">
         <v>0</v>
       </c>
       <c r="AN46" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO46">
-        <v>-0.0689406882859589</v>
-      </c>
-      <c r="AP46">
-        <v>0.2170434782608695</v>
-      </c>
-      <c r="AQ46">
-        <v>0</v>
-      </c>
-      <c r="AR46" t="s">
-        <v>179</v>
-      </c>
-      <c r="AS46" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:45">
+    <row r="47" spans="1:42">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F47">
         <v>0.8326966218204522</v>
@@ -8219,28 +7733,19 @@
         <v>1.009497546097611</v>
       </c>
       <c r="AL47" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM47">
         <v>0</v>
       </c>
       <c r="AN47" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO47">
-        <v>-0.0036439788262908</v>
-      </c>
-      <c r="AP47">
-        <v>0.5421818181818182</v>
-      </c>
-      <c r="AQ47">
-        <v>0</v>
-      </c>
-      <c r="AR47" t="s">
-        <v>179</v>
-      </c>
-      <c r="AS47" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -8250,13 +7755,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS39"/>
+  <dimension ref="A1:AP39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8383,28 +7888,19 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F2">
         <v>1.194466261364978</v>
@@ -8503,42 +7999,33 @@
         <v>1.151433773146992</v>
       </c>
       <c r="AL2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM2">
         <v>1</v>
       </c>
       <c r="AN2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2">
-        <v>0.0891136506450171</v>
-      </c>
-      <c r="AP2">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F3">
         <v>1.194466261364978</v>
@@ -8637,42 +8124,33 @@
         <v>1.151433773146992</v>
       </c>
       <c r="AL3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM3">
         <v>1</v>
       </c>
       <c r="AN3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO3">
-        <v>0.0891136506450181</v>
-      </c>
-      <c r="AP3">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" t="s">
         <v>179</v>
       </c>
-      <c r="AS3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>182</v>
-      </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" t="s">
         <v>218</v>
-      </c>
-      <c r="D4" t="s">
-        <v>221</v>
       </c>
       <c r="F4">
         <v>1.126452883372995</v>
@@ -8771,39 +8249,30 @@
         <v>1.422908009991355</v>
       </c>
       <c r="AL4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM4">
         <v>1</v>
       </c>
       <c r="AN4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO4">
-        <v>0.1722404122801303</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F5">
         <v>1.115862095586755</v>
@@ -8902,42 +8371,33 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM5">
         <v>1</v>
       </c>
       <c r="AN5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO5">
-        <v>0.0515515979202667</v>
-      </c>
-      <c r="AP5">
-        <v>0.3033571428571429</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP5" t="s">
         <v>63</v>
       </c>
-      <c r="AS5" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F6">
         <v>1.056593274171426</v>
@@ -9036,42 +8496,33 @@
         <v>1.109868565865976</v>
       </c>
       <c r="AL6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM6">
         <v>1</v>
       </c>
       <c r="AN6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO6">
-        <v>0.0090987614396815</v>
-      </c>
-      <c r="AP6">
-        <v>0.4740199999999999</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:42">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F7">
         <v>1.056593274171426</v>
@@ -9170,42 +8621,33 @@
         <v>1.109868565865976</v>
       </c>
       <c r="AL7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM7">
         <v>1</v>
       </c>
       <c r="AN7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO7">
-        <v>0.0090987614396813</v>
-      </c>
-      <c r="AP7">
-        <v>0.4740199999999999</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:42">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F8">
         <v>1.02004805769283</v>
@@ -9304,39 +8746,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM8">
         <v>1</v>
       </c>
       <c r="AN8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO8">
-        <v>0.0140953415322656</v>
-      </c>
-      <c r="AP8">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:42">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F9">
         <v>1.02004805769283</v>
@@ -9435,39 +8868,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM9">
         <v>1</v>
       </c>
       <c r="AN9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO9">
-        <v>0.014095341532266</v>
-      </c>
-      <c r="AP9">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:42">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F10">
         <v>1.02004805769283</v>
@@ -9566,39 +8990,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM10">
         <v>1</v>
       </c>
       <c r="AN10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO10">
-        <v>0.0140953415322658</v>
-      </c>
-      <c r="AP10">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:42">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F11">
         <v>1.02004805769283</v>
@@ -9697,39 +9112,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM11">
         <v>1</v>
       </c>
       <c r="AN11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO11">
-        <v>0.0140953415322658</v>
-      </c>
-      <c r="AP11">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:42">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F12">
         <v>1.02004805769283</v>
@@ -9828,39 +9234,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM12">
         <v>1</v>
       </c>
       <c r="AN12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO12">
-        <v>0.0140953415322657</v>
-      </c>
-      <c r="AP12">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:42">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F13">
         <v>1.02004805769283</v>
@@ -9959,39 +9356,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM13">
         <v>1</v>
       </c>
       <c r="AN13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO13">
-        <v>0.0140953415322656</v>
-      </c>
-      <c r="AP13">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:42">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F14">
         <v>1.02004805769283</v>
@@ -10090,39 +9478,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM14">
         <v>1</v>
       </c>
       <c r="AN14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO14">
-        <v>0.0140953415322657</v>
-      </c>
-      <c r="AP14">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:42">
       <c r="A15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F15">
         <v>1.02004805769283</v>
@@ -10221,39 +9600,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM15">
         <v>1</v>
       </c>
       <c r="AN15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO15">
-        <v>0.0140953415322656</v>
-      </c>
-      <c r="AP15">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:42">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F16">
         <v>1.02004805769283</v>
@@ -10352,39 +9722,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM16">
         <v>1</v>
       </c>
       <c r="AN16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO16">
-        <v>0.014095341532266</v>
-      </c>
-      <c r="AP16">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:42">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F17">
         <v>1.02004805769283</v>
@@ -10483,39 +9844,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM17">
         <v>1</v>
       </c>
       <c r="AN17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO17">
-        <v>0.014095341532266</v>
-      </c>
-      <c r="AP17">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:42">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F18">
         <v>1.02004805769283</v>
@@ -10614,39 +9966,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM18">
         <v>1</v>
       </c>
       <c r="AN18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO18">
-        <v>0.0140953415322656</v>
-      </c>
-      <c r="AP18">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:42">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F19">
         <v>1.02004805769283</v>
@@ -10745,39 +10088,30 @@
         <v>1.10820167310466</v>
       </c>
       <c r="AL19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM19">
         <v>1</v>
       </c>
       <c r="AN19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO19">
-        <v>0.0140953415322654</v>
-      </c>
-      <c r="AP19">
-        <v>0.0309354838709677</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:42">
       <c r="A20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F20">
         <v>1.012753833340836</v>
@@ -10876,42 +10210,33 @@
         <v>1.109868565865976</v>
       </c>
       <c r="AL20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM20">
         <v>1</v>
       </c>
       <c r="AN20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO20">
-        <v>-0.0210380827496821</v>
-      </c>
-      <c r="AP20">
-        <v>0.4740199999999999</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>173</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:42">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F21">
         <v>0.9960444492191682</v>
@@ -11007,42 +10332,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM21">
         <v>1</v>
       </c>
       <c r="AN21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO21">
-        <v>-0.025570419822241</v>
-      </c>
-      <c r="AP21">
-        <v>0.456109756097561</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:42">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F22">
         <v>0.9956356627087248</v>
@@ -11138,42 +10454,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM22">
         <v>1</v>
       </c>
       <c r="AN22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO22">
-        <v>-0.0086947696942436</v>
-      </c>
-      <c r="AP22">
-        <v>0.52608</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>256</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:42">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F23">
         <v>0.9955745921547524</v>
@@ -11269,42 +10576,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM23">
         <v>1</v>
       </c>
       <c r="AN23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO23">
-        <v>-0.009402377006454099</v>
-      </c>
-      <c r="AP23">
-        <v>0.5360396825396826</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>256</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:42">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F24">
         <v>0.9952880329088488</v>
@@ -11400,42 +10698,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM24">
         <v>1</v>
       </c>
       <c r="AN24" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO24">
-        <v>-0.0282462549280952</v>
-      </c>
-      <c r="AP24">
-        <v>0.2218095238095238</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:42">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F25">
         <v>0.9950621158558792</v>
@@ -11531,42 +10820,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM25">
         <v>1</v>
       </c>
       <c r="AN25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO25">
-        <v>0.0440968338747182</v>
-      </c>
-      <c r="AP25">
-        <v>0.3033571428571429</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP25" t="s">
         <v>63</v>
       </c>
-      <c r="AS25" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:42">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F26">
         <v>0.9949203308329048</v>
@@ -11662,42 +10942,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM26">
         <v>1</v>
       </c>
       <c r="AN26" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO26">
-        <v>0.0020134268383163</v>
-      </c>
-      <c r="AP26">
-        <v>0.4859401709401709</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:42">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F27">
         <v>0.9941198229372316</v>
@@ -11793,42 +11064,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM27">
         <v>1</v>
       </c>
       <c r="AN27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO27">
-        <v>0.0133476137212195</v>
-      </c>
-      <c r="AP27">
-        <v>0.4740199999999999</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>257</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>254</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:42">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F28">
         <v>0.993629834552358</v>
@@ -11924,42 +11186,33 @@
         <v>1.007094398189811</v>
       </c>
       <c r="AL28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM28">
         <v>1</v>
       </c>
       <c r="AN28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO28">
-        <v>-0.0134819914090808</v>
-      </c>
-      <c r="AP28">
-        <v>0.4859401709401709</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>256</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:42">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F29">
         <v>0.9935313397329736</v>
@@ -12055,42 +11308,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM29">
         <v>1</v>
       </c>
       <c r="AN29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO29">
-        <v>-0.0065598602662432</v>
-      </c>
-      <c r="AP29">
-        <v>0.537296875</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:42">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F30">
         <v>0.9931741218573716</v>
@@ -12186,42 +11430,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO30" t="s">
         <v>61</v>
       </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO30">
-        <v>0.0153353345227267</v>
-      </c>
-      <c r="AP30">
-        <v>0.4740199999999999</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>66</v>
+      <c r="AP30" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:42">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D31" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F31">
         <v>0.9931268276102648</v>
@@ -12317,42 +11552,33 @@
         <v>1.004391501557848</v>
       </c>
       <c r="AL31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO31" t="s">
         <v>61</v>
       </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO31">
-        <v>-0.0300331390645142</v>
-      </c>
-      <c r="AP31">
-        <v>0.3680597014925373</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>66</v>
+      <c r="AP31" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:42">
       <c r="A32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F32">
         <v>0.9918354785115864</v>
@@ -12448,42 +11674,33 @@
         <v>1.007094398189811</v>
       </c>
       <c r="AL32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM32">
         <v>1</v>
       </c>
       <c r="AN32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO32">
-        <v>0.0223168535666334</v>
-      </c>
-      <c r="AP32">
-        <v>0.4731279069767442</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:42">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D33" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F33">
         <v>0.9906919449532976</v>
@@ -12579,42 +11796,33 @@
         <v>1.007094398189811</v>
       </c>
       <c r="AL33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO33" t="s">
         <v>61</v>
       </c>
-      <c r="AM33">
-        <v>1</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO33">
-        <v>-0.0261173396904371</v>
-      </c>
-      <c r="AP33">
-        <v>0.4303205128205128</v>
-      </c>
-      <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>66</v>
+      <c r="AP33" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:42">
       <c r="A34" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D34" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F34">
         <v>0.9895331395755976</v>
@@ -12710,42 +11918,33 @@
         <v>1.007094398189811</v>
       </c>
       <c r="AL34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM34">
         <v>1</v>
       </c>
       <c r="AN34" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO34">
-        <v>0.008510675376070099</v>
-      </c>
-      <c r="AP34">
-        <v>0.4775428571428571</v>
-      </c>
-      <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>258</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:42">
       <c r="A35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F35">
         <v>0.9885610199149532</v>
@@ -12841,42 +12040,33 @@
         <v>1.009525841662229</v>
       </c>
       <c r="AL35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM35">
         <v>1</v>
       </c>
       <c r="AN35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO35">
-        <v>-0.0105632701642349</v>
-      </c>
-      <c r="AP35">
-        <v>0.4859401709401709</v>
-      </c>
-      <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:42">
       <c r="A36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F36">
         <v>0.9868934836198452</v>
@@ -12972,42 +12162,33 @@
         <v>1.020358949003822</v>
       </c>
       <c r="AL36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM36">
         <v>1</v>
       </c>
       <c r="AN36" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO36">
-        <v>-0.0495571779339777</v>
-      </c>
-      <c r="AP36">
-        <v>0.327515625</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>259</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>66</v>
+        <v>158</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>256</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:42">
       <c r="A37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>215</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>218</v>
-      </c>
       <c r="D37" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F37">
         <v>0.9864197177533276</v>
@@ -13103,42 +12284,33 @@
         <v>1.011819988425393</v>
       </c>
       <c r="AL37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM37">
         <v>1</v>
       </c>
       <c r="AN37" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO37">
-        <v>-0.0017015993654165</v>
-      </c>
-      <c r="AP37">
-        <v>0.52608</v>
-      </c>
-      <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>260</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:42">
       <c r="A38" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D38" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F38">
         <v>0.9852996726139758</v>
@@ -13234,42 +12406,33 @@
         <v>1.014028695370705</v>
       </c>
       <c r="AL38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO38" t="s">
         <v>61</v>
       </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO38">
-        <v>0.0354036549011216</v>
-      </c>
-      <c r="AP38">
-        <v>0.2877</v>
-      </c>
-      <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>66</v>
+      <c r="AP38" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:42">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D39" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F39">
         <v>0.9828106639971363</v>
@@ -13365,28 +12528,19 @@
         <v>1.034372627655284</v>
       </c>
       <c r="AL39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM39">
         <v>1</v>
       </c>
       <c r="AN39" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO39">
-        <v>0.0363653097384573</v>
-      </c>
-      <c r="AP39">
-        <v>0.4303205128205128</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>66</v>
+        <v>158</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/results/BINARY_POOL/Pretomanid.xlsx
+++ b/results/BINARY_POOL/Pretomanid.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP7"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Num_Isolates</t>
+          <t>Present_SR</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -637,11 +637,6 @@
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>single_lineage</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Phenos</t>
         </is>
@@ -778,8 +773,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -918,11 +912,6 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>4.3.4.2.1</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -1060,11 +1049,6 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -1202,11 +1186,6 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -1344,11 +1323,6 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -1481,11 +1455,6 @@
         </is>
       </c>
       <c r="AO7" t="inlineStr">
-        <is>
-          <t>3.1.2.1</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -1502,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP47"/>
+  <dimension ref="A1:AO47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1583,7 +1552,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Num_Isolates</t>
+          <t>Present_SR</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -1712,11 +1681,6 @@
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>single_lineage</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Phenos</t>
         </is>
@@ -1849,8 +1813,7 @@
           <t>Assoc w R</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -1983,8 +1946,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -2123,11 +2085,6 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2.2.2</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -2261,8 +2218,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -2397,8 +2353,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -2533,8 +2488,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -2669,8 +2623,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -2805,8 +2758,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -2943,11 +2895,6 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -3081,11 +3028,6 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>3.1.1</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -3219,11 +3161,6 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1.1.3</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -3357,11 +3294,6 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>4.1.1.1</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -3495,11 +3427,6 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>4.3.2.1</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -3633,11 +3560,6 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>BOV_AFRI</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -3771,11 +3693,6 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>4.3.4.2.1</t>
-        </is>
-      </c>
-      <c r="AP16" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -3909,11 +3826,6 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>4.3.4.2.1</t>
-        </is>
-      </c>
-      <c r="AP17" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -4047,11 +3959,6 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2.2.1.1</t>
-        </is>
-      </c>
-      <c r="AP18" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -4185,11 +4092,6 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>4.3.3</t>
-        </is>
-      </c>
-      <c r="AP19" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -4323,11 +4225,6 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>4.3.2</t>
-        </is>
-      </c>
-      <c r="AP20" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -4459,8 +4356,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr">
+      <c r="AO21" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -4595,11 +4491,6 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>4.3.3</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -4733,11 +4624,6 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP23" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -4871,11 +4757,6 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP24" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -5009,11 +4890,6 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="AP25" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -5146,11 +5022,6 @@
         </is>
       </c>
       <c r="AO26" t="inlineStr">
-        <is>
-          <t>BOV_AFRI</t>
-        </is>
-      </c>
-      <c r="AP26" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -5279,8 +5150,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr">
+      <c r="AO27" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -5415,11 +5285,6 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>4.1.1.1</t>
-        </is>
-      </c>
-      <c r="AP28" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -5553,11 +5418,6 @@
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>4.3.4.2.1</t>
-        </is>
-      </c>
-      <c r="AP29" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -5691,11 +5551,6 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>4.6.2</t>
-        </is>
-      </c>
-      <c r="AP30" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -5829,11 +5684,6 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="AP31" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -5967,11 +5817,6 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -6105,11 +5950,6 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>1.2.2</t>
-        </is>
-      </c>
-      <c r="AP33" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -6243,11 +6083,6 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP34" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -6381,11 +6216,6 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>1.1.2</t>
-        </is>
-      </c>
-      <c r="AP35" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -6519,11 +6349,6 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>4.4.1.1</t>
-        </is>
-      </c>
-      <c r="AP36" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -6657,11 +6482,6 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>4.3.3</t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -6795,11 +6615,6 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="AP38" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -6933,11 +6748,6 @@
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP39" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -7071,11 +6881,6 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>4.1.2</t>
-        </is>
-      </c>
-      <c r="AP40" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -7207,8 +7012,7 @@
           <t>Neutral</t>
         </is>
       </c>
-      <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr">
+      <c r="AO41" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -7343,11 +7147,6 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="AP42" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -7481,11 +7280,6 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="AP43" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -7619,11 +7413,6 @@
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="AP44" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -7757,11 +7546,6 @@
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="AP45" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -7895,11 +7679,6 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="AP46" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -8032,11 +7811,6 @@
         </is>
       </c>
       <c r="AO47" t="inlineStr">
-        <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="AP47" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -8053,7 +7827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP39"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8134,7 +7908,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Num_Isolates</t>
+          <t>Present_SR</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -8263,11 +8037,6 @@
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>single_lineage</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Phenos</t>
         </is>
@@ -8404,11 +8173,6 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -8544,11 +8308,6 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -8682,8 +8441,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -8820,11 +8578,6 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>4.3.4.2.1</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -8960,11 +8713,6 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4.4.1.1</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -9100,11 +8848,6 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>4.4.1.1</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -9238,8 +8981,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -9374,8 +9116,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -9510,8 +9251,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -9646,8 +9386,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -9782,8 +9521,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -9918,8 +9656,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -10054,8 +9791,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -10190,8 +9926,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -10326,8 +10061,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -10462,8 +10196,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -10598,8 +10331,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -10734,8 +10466,7 @@
           <t>Uncertain</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
@@ -10872,11 +10603,6 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="AP20" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -11010,11 +10736,6 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>4.1.1.1</t>
-        </is>
-      </c>
-      <c r="AP21" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -11148,11 +10869,6 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>4.1.1.3</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -11286,11 +11002,6 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>4.1.1.3</t>
-        </is>
-      </c>
-      <c r="AP23" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -11424,11 +11135,6 @@
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>BOV_AFRI</t>
-        </is>
-      </c>
-      <c r="AP24" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -11562,11 +11268,6 @@
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>4.3.4.2.1</t>
-        </is>
-      </c>
-      <c r="AP25" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -11700,11 +11401,6 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>1.1.3</t>
-        </is>
-      </c>
-      <c r="AP26" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -11838,11 +11534,6 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>4.6.2.2</t>
-        </is>
-      </c>
-      <c r="AP27" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -11976,11 +11667,6 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>4.1.1.3</t>
-        </is>
-      </c>
-      <c r="AP28" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -12114,11 +11800,6 @@
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>1.1.2</t>
-        </is>
-      </c>
-      <c r="AP29" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -12252,11 +11933,6 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP30" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -12390,11 +12066,6 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP31" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -12528,11 +12199,6 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>1.1.3</t>
-        </is>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -12666,11 +12332,6 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP33" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -12804,11 +12465,6 @@
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>4.1.1</t>
-        </is>
-      </c>
-      <c r="AP34" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -12942,11 +12598,6 @@
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>1.1.2</t>
-        </is>
-      </c>
-      <c r="AP35" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -13080,11 +12731,6 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>4.2.1</t>
-        </is>
-      </c>
-      <c r="AP36" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -13218,11 +12864,6 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -13356,11 +12997,6 @@
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>2.2.1</t>
-        </is>
-      </c>
-      <c r="AP38" t="inlineStr">
-        <is>
           <t>WHO</t>
         </is>
       </c>
@@ -13493,11 +13129,6 @@
         </is>
       </c>
       <c r="AO39" t="inlineStr">
-        <is>
-          <t>4.3.3</t>
-        </is>
-      </c>
-      <c r="AP39" t="inlineStr">
         <is>
           <t>WHO</t>
         </is>
